--- a/data/trans_orig/Q25_A_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Clase-trans_orig.xlsx
@@ -672,19 +672,19 @@
         <v>16.73485169228349</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>8.058443440081241</v>
+        <v>8.058443440081243</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.385450150254432</v>
+        <v>6.385450150254433</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>10.80782985777147</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>14.82204220806671</v>
+        <v>14.8220422080667</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>9.87227993166813</v>
+        <v>9.872279931668128</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>10.85247407139409</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.634862385262512</v>
+        <v>8.792230439256812</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.18004624896809</v>
+        <v>11.06050558404348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11.88575504143967</v>
+        <v>11.84802526014228</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14.68163243162641</v>
+        <v>14.48525341150787</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.133350525922681</v>
+        <v>6.166612661922397</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.985424098052209</v>
+        <v>4.838071984194706</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.616897170061014</v>
+        <v>8.815636546112367</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>12.42227077556269</v>
+        <v>12.52216021581111</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.3590001071671</v>
+        <v>8.301642779217483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9.320806914170754</v>
+        <v>9.419053068769522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11.2765032347793</v>
+        <v>11.20923641800845</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>14.4221759367409</v>
+        <v>14.3793849002651</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.33791613870013</v>
+        <v>13.26352972872151</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.95246651353401</v>
+        <v>14.93655935586827</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.60440236102799</v>
+        <v>16.31439848376228</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.881088330698</v>
+        <v>18.91136103991969</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.28897062315773</v>
+        <v>10.519171244097</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.931043620111513</v>
+        <v>8.778561492289882</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.27450649268115</v>
+        <v>13.94941080048057</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.1207223194693</v>
+        <v>17.32110270495661</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>11.81363769252833</v>
+        <v>11.83162503433016</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12.50748610509326</v>
+        <v>12.43769971877652</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14.5452478299623</v>
+        <v>14.57031836009788</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>17.78830440634136</v>
+        <v>17.75503590043541</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>11.62722917123503</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15.53725884719223</v>
+        <v>15.53725884719222</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>6.384459164440485</v>
@@ -817,16 +817,16 @@
         <v>7.945578950264753</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>12.81106526991909</v>
+        <v>12.8110652699191</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>8.700929451116208</v>
+        <v>8.70092945111621</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>10.47687877883093</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9.9617028262142</v>
+        <v>9.961702826214202</v>
       </c>
       <c r="N7" s="5" t="n">
         <v>14.50385141100863</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.948047455990505</v>
+        <v>7.954304181674724</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.290585044643333</v>
+        <v>9.189993479909512</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9.646681199618127</v>
+        <v>9.726048409109334</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13.12987735927467</v>
+        <v>13.18683424716317</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>4.597045739597485</v>
+        <v>4.648235674448994</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.353644956506188</v>
+        <v>6.308520231655986</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>6.184663377852521</v>
+        <v>6.42698899354852</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>10.42203649877343</v>
+        <v>10.42520617537267</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>7.191924593566718</v>
+        <v>7.217879553231056</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8.769542319809236</v>
+        <v>8.801777798551592</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8.617534466069236</v>
+        <v>8.608641665243852</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>12.83042767653911</v>
+        <v>12.88921794286788</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.02916684820634</v>
+        <v>12.25954274041906</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.33823105295406</v>
+        <v>15.02982445248261</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.68523641107615</v>
+        <v>14.13350454736861</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.9181455469266</v>
+        <v>18.18073496972632</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>9.19772260661861</v>
+        <v>9.453823186387512</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>10.96220494912285</v>
+        <v>10.89037254265793</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>9.813457581174433</v>
+        <v>9.948277646448441</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>15.48012472134794</v>
+        <v>15.36778789533125</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>10.2631288013701</v>
+        <v>10.37415165552638</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12.82699357511489</v>
+        <v>12.91574545607918</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11.46938040232811</v>
+        <v>11.48631392854282</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>16.38968785514719</v>
+        <v>16.42948994959588</v>
       </c>
     </row>
     <row r="10">
@@ -941,19 +941,19 @@
         <v>13.76084605043786</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16.13884258744424</v>
+        <v>16.13884258744425</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>5.032199173668508</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.778216333648804</v>
+        <v>7.778216333648802</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>7.450111794082143</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>10.67112316856043</v>
+        <v>10.67112316856042</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>9.147464643528005</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.794843731007402</v>
+        <v>8.773276777623632</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.15585202325017</v>
+        <v>10.29832817868751</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11.97041619419597</v>
+        <v>11.77066647932303</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14.25779771254695</v>
+        <v>14.25696682542368</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.752056405357919</v>
+        <v>3.642486491259922</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.830711035470281</v>
+        <v>5.853265256669119</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.784152828286776</v>
+        <v>4.633065317412006</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.607262458523835</v>
+        <v>7.725574355368443</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.007271520046194</v>
+        <v>8.015201918388639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9.814806518101044</v>
+        <v>9.819500127008141</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11.32856677689404</v>
+        <v>11.24075555560225</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>13.47952647325602</v>
+        <v>13.45970666992702</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.68294369682267</v>
+        <v>11.61208898744358</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.95509956716016</v>
+        <v>14.09420570451246</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.12792918043949</v>
+        <v>15.79687926551011</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.96978822286977</v>
+        <v>18.21708479543563</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.187712927960074</v>
+        <v>6.968654613725173</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.98052600527718</v>
+        <v>11.03041369666031</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.45075101723114</v>
+        <v>10.95298158827426</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>13.47687572378146</v>
+        <v>13.34261190832481</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.66672475849535</v>
+        <v>10.48312715178012</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12.9628178348226</v>
+        <v>13.0690122927023</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14.91351806854705</v>
+        <v>14.72854716681651</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>16.8924008962156</v>
+        <v>16.70034591475957</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.36255453255888</v>
+        <v>10.23043868313489</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10.26201749464187</v>
+        <v>10.24411711870663</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9.937839545858051</v>
+        <v>10.03532888376452</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15.15209563584808</v>
+        <v>15.23578796091111</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.758505396663727</v>
+        <v>4.773888735195899</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.300010733138501</v>
+        <v>6.331611439994181</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>6.941703289802622</v>
+        <v>6.914223261077301</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>9.152224098029308</v>
+        <v>9.252691944690419</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>9.269110843336771</v>
+        <v>9.447320340864595</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9.462278750989642</v>
+        <v>9.475416112498868</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9.496978809529246</v>
+        <v>9.409367408362186</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>13.87689805228055</v>
+        <v>13.93880372451124</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.4533177553774</v>
+        <v>12.41431522317652</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.86742825859681</v>
+        <v>13.01881045960582</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.38565182562993</v>
+        <v>12.4403247386841</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.55686157828918</v>
+        <v>18.72992534371436</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>8.374795847882128</v>
+        <v>8.856896510811652</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>9.239098832824387</v>
+        <v>9.307872320072178</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>10.47513507995676</v>
+        <v>10.557785563041</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>12.92616717060487</v>
+        <v>12.88094669700535</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>11.31298510513338</v>
+        <v>11.24716976954124</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11.65145163547501</v>
+        <v>11.64408110624578</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11.47406395747164</v>
+        <v>11.46879959860329</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>16.4404151586253</v>
+        <v>16.519382348737</v>
       </c>
     </row>
     <row r="16">
@@ -1216,13 +1216,13 @@
         <v>16.22926681925014</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>6.269325450569547</v>
+        <v>6.269325450569546</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>7.792955191656548</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>9.666743338926464</v>
+        <v>9.666743338926466</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11.84033954647705</v>
@@ -1231,13 +1231,13 @@
         <v>10.10945804099356</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11.4125034534475</v>
+        <v>11.41250345344751</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>12.71478903399164</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>14.19609159476026</v>
+        <v>14.19609159476025</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.0520719538556</v>
+        <v>9.765951747021418</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.30447618558032</v>
+        <v>11.5246595953578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.80299963441868</v>
+        <v>12.83426707126255</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14.22568085557998</v>
+        <v>14.22591529589737</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.609453702192501</v>
+        <v>4.61622408917766</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.355536351852526</v>
+        <v>6.180986174192736</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.533241944718362</v>
+        <v>7.695738467561531</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.888699133602294</v>
+        <v>9.774922268185859</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.377566468741211</v>
+        <v>8.303841490204256</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9.860604140793534</v>
+        <v>9.849754392453258</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11.2692806274675</v>
+        <v>11.26832943629433</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>12.6005615501612</v>
+        <v>12.72417897830957</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.23650892040624</v>
+        <v>15.24274051221757</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.92573420970488</v>
+        <v>15.88314773200451</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.79091110247928</v>
+        <v>16.7669783755406</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.59999603306465</v>
+        <v>18.52820279967341</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.100644647890034</v>
+        <v>8.367157910458609</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.526018749988284</v>
+        <v>9.437227801085864</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.15652064106608</v>
+        <v>13.26693885368467</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.3172431128413</v>
+        <v>14.12090263652719</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.32458789219023</v>
+        <v>12.12467376614291</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13.18625080553691</v>
+        <v>13.03364062070082</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14.642154415399</v>
+        <v>14.5119799395832</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>15.84488332862751</v>
+        <v>15.82101632234962</v>
       </c>
     </row>
     <row r="19">
@@ -1346,7 +1346,7 @@
         <v>6.224679218222519</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5.976217138952832</v>
+        <v>5.976217138952831</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>8.185159270539797</v>
@@ -1358,19 +1358,19 @@
         <v>7.851583168536414</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>6.792329023278454</v>
+        <v>6.792329023278455</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>15.36637527193688</v>
+        <v>15.36637527193689</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>7.553735437957173</v>
+        <v>7.553735437957174</v>
       </c>
       <c r="L19" s="5" t="n">
         <v>7.709807963295456</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6.702846023352431</v>
+        <v>6.70284602335243</v>
       </c>
       <c r="N19" s="5" t="n">
         <v>14.28445571025575</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7688682260273375</v>
+        <v>0.8943114091421386</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.385271896123345</v>
+        <v>1.141256093586607</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.055594134799899</v>
+        <v>0.9665317787605477</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.772529740992882</v>
+        <v>2.748901147586263</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>6.39622527083174</v>
+        <v>6.433435119138482</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>6.127788933286758</v>
+        <v>5.96850012865083</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>4.875633016234898</v>
+        <v>4.912171583294299</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>11.87420222915337</v>
+        <v>12.35430526924717</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>5.739280138552944</v>
+        <v>5.874501110271519</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5.793919390553567</v>
+        <v>5.892079116328222</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4.79106741594692</v>
+        <v>4.702809273637491</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>11.12947726330378</v>
+        <v>11.0935294191572</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.911109570942351</v>
+        <v>7.343073261496981</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.37220177467981</v>
+        <v>14.43692181935412</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.3807711299555</v>
+        <v>15.9181453298199</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15.53340867764003</v>
+        <v>15.65530926769191</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>10.58160641344197</v>
+        <v>10.66188056772939</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>10.62858351711738</v>
+        <v>10.32048351358006</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>10.18306109792116</v>
+        <v>9.941536461828276</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>19.02488395173311</v>
+        <v>19.66321975723393</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>9.55590130559661</v>
+        <v>9.603869789942438</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9.828257253162564</v>
+        <v>10.18606818863337</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9.652160176478123</v>
+        <v>9.634069746415483</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>17.99403118416219</v>
+        <v>17.78514568353921</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.05953814568389</v>
+        <v>10.04931321504553</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>11.26647432602179</v>
+        <v>11.32158670540252</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11.84479799312496</v>
+        <v>11.87337577119894</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15.27786399275208</v>
+        <v>15.3613558080936</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.904848807605857</v>
+        <v>5.92037208681711</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.926292139089361</v>
+        <v>6.933596244774904</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7.949990817883712</v>
+        <v>7.922763460190032</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>11.72769188296487</v>
+        <v>11.68247120591275</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>9.095838002679994</v>
+        <v>9.088727621379434</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10.0409064299456</v>
+        <v>10.05304352563871</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10.72963756822652</v>
+        <v>10.74210838405986</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>14.38474981823857</v>
+        <v>14.3853346091613</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.52175739732182</v>
+        <v>11.54604014112856</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.00876711850167</v>
+        <v>12.98998346950143</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.50040230485479</v>
+        <v>13.56927123371711</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.17787271712278</v>
+        <v>17.23691893742566</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.598267089314185</v>
+        <v>7.698159208658576</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.53378431861308</v>
+        <v>8.482179042195028</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.961870166121606</v>
+        <v>9.971048371216897</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.73139215476432</v>
+        <v>13.72999813372137</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.28257486496844</v>
+        <v>10.22616750852657</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11.2896074882086</v>
+        <v>11.28124008769584</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12.01601177040929</v>
+        <v>12.02649004079756</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>15.7651285420078</v>
+        <v>15.75490043753496</v>
       </c>
     </row>
     <row r="25">
